--- a/base/static/misc/template_act.xlsx
+++ b/base/static/misc/template_act.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -209,9 +209,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,36 +219,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="120" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,50 +557,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -606,31 +609,31 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="9" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -644,73 +647,84 @@
       <c r="H11" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="15" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="11" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="8">
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="B9:F9"/>
@@ -719,15 +733,6 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>

--- a/base/static/misc/template_act.xlsx
+++ b/base/static/misc/template_act.xlsx
@@ -219,27 +219,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -255,6 +234,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,9 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="120" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -557,12 +555,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="9"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -570,36 +568,36 @@
       <c r="H2" s="9"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -612,13 +610,13 @@
       <c r="H7" s="7"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
@@ -626,13 +624,13 @@
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="8" t="s">
         <v>2</v>
       </c>
@@ -647,81 +645,81 @@
       <c r="H11" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="22" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/base/static/misc/template_act.xlsx
+++ b/base/static/misc/template_act.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>№</t>
   </si>
@@ -33,21 +33,9 @@
     <t>Количество</t>
   </si>
   <si>
-    <t>Время и дата передачи:</t>
-  </si>
-  <si>
     <t>Перечень передаваемых расходных материалов:</t>
   </si>
   <si>
-    <t>Передал:</t>
-  </si>
-  <si>
-    <t>Получил:</t>
-  </si>
-  <si>
-    <t>Акт передачи расходных материалов №</t>
-  </si>
-  <si>
     <t>от</t>
   </si>
   <si>
@@ -67,6 +55,21 @@
   </si>
   <si>
     <t>(подпись, расшифровка)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акт передачи расходных материалов № </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер запроса: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время и дата передачи: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Передал: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получил: </t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -209,9 +212,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,6 +234,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -536,9 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,50 +563,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H2" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -607,126 +615,138 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="8" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D8:G8"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B4:D4"/>

--- a/base/static/misc/template_act.xlsx
+++ b/base/static/misc/template_act.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$34</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,6 @@
     <t>Количество</t>
   </si>
   <si>
-    <t>Перечень передаваемых расходных материалов:</t>
-  </si>
-  <si>
     <t>от</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>(подпись, расшифровка)</t>
   </si>
   <si>
-    <t xml:space="preserve">Акт передачи расходных материалов № </t>
-  </si>
-  <si>
     <t xml:space="preserve">Номер запроса: </t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">Получил: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акт передачи материалов № </t>
+  </si>
+  <si>
+    <t>Перечень передаваемых материалов:</t>
   </si>
 </sst>
 </file>
@@ -241,23 +241,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,9 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -563,49 +561,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="B6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -620,22 +618,22 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="16"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -643,13 +641,13 @@
       <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="7" t="s">
         <v>2</v>
       </c>
@@ -665,7 +663,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -676,26 +674,26 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -729,13 +727,13 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="11"/>
       <c r="F22" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
